--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3305381.907845282</v>
+        <v>3302968.995339478</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7895075.025385278</v>
+        <v>7895075.025385277</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152338</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2842774481093</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444519</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1667,13 +1667,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>150.7499222937199</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286721</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299264</v>
+        <v>243.9557686402696</v>
       </c>
       <c r="F17" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G17" t="n">
-        <v>342.697579311118</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.383618044985</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584043</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T17" t="n">
-        <v>9.704684674860175</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396019</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629243</v>
+        <v>99.02267475629253</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587695</v>
+        <v>80.39132667587705</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423377</v>
+        <v>78.20981630423387</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059584</v>
+        <v>77.19690168059594</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669282</v>
+        <v>97.80166191669292</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198538</v>
+        <v>76.53086857198548</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750269</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771193</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632774</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467017</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286721</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>100.3944789225604</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651899399376</v>
+        <v>152.5874830435866</v>
       </c>
       <c r="G20" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584043</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972847</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6078338396019</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629243</v>
+        <v>99.02267475629253</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587695</v>
+        <v>80.39132667587705</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423377</v>
+        <v>78.20981630423387</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059584</v>
+        <v>77.19690168059594</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669282</v>
+        <v>97.80166191669292</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198538</v>
+        <v>76.53086857198548</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750269</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771193</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632774</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467017</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286721</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783475</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G23" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H23" t="n">
-        <v>226.383618044985</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584042</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972847</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6078338396019</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629243</v>
+        <v>99.02267475629253</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587695</v>
+        <v>80.39132667587705</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423377</v>
+        <v>78.20981630423387</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059584</v>
+        <v>77.19690168059594</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669282</v>
+        <v>97.80166191669292</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198538</v>
+        <v>76.53086857198548</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750269</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771193</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632774</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467017</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403091</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>90.60953276887581</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253479</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592156</v>
@@ -3554,7 +3554,7 @@
         <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115121</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>93.13769105450045</v>
       </c>
       <c r="E40" t="n">
         <v>48.74924241846429</v>
@@ -3673,13 +3673,13 @@
         <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2069382643931</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D41" t="n">
-        <v>178.3523368964096</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390067</v>
+        <v>232.530448498536</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.2291684549207</v>
+        <v>37.22916845492077</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
         <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y41" t="n">
         <v>314.2793453227985</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.2882277653727</v>
+        <v>95.28822776537277</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495722</v>
+        <v>76.65687968495729</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331403</v>
+        <v>74.4753693133141</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967611</v>
+        <v>73.46245468967618</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577309</v>
+        <v>94.06721492577316</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2090778166067</v>
+        <v>72.79642158106572</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658296</v>
+        <v>24.39382707658303</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679219</v>
+        <v>16.97355933679226</v>
       </c>
       <c r="S43" t="n">
         <v>117.8104319981868</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429141</v>
+        <v>179.0030121784541</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V43" t="n">
         <v>180.1790499905729</v>
@@ -3961,7 +3961,7 @@
         <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y43" t="n">
         <v>146.6260600188397</v>
@@ -3977,22 +3977,22 @@
         <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651741</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.2291684549207</v>
+        <v>37.22916845492077</v>
       </c>
       <c r="T44" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U44" t="n">
         <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>193.4003959541953</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
         <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y44" t="n">
         <v>314.2793453227985</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>95.2882277653727</v>
+        <v>95.28822776537277</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495722</v>
+        <v>76.65687968495729</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331403</v>
+        <v>74.4753693133141</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967611</v>
+        <v>73.46245468967618</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577309</v>
+        <v>94.06721492577316</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106564</v>
+        <v>72.79642158106572</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658296</v>
+        <v>24.39382707658303</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679219</v>
+        <v>48.3862155723323</v>
       </c>
       <c r="S46" t="n">
         <v>117.8104319981868</v>
@@ -4189,16 +4189,16 @@
         <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V46" t="n">
         <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>245.9770612388769</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X46" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y46" t="n">
         <v>146.6260600188397</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1305.870760784882</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262045</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.312648368781</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1966.533851893269</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315259</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5218,31 +5218,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874604</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822737</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831082</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435584</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.639074654049</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.622949341043</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341043</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5346,19 +5346,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5431,10 +5431,10 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328084</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1600.338445638323</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
-        <v>1300.289207831583</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831583</v>
+        <v>883.675031669185</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670109</v>
+        <v>637.2550633456798</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110754</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897441</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.22843226994</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T17" t="n">
-        <v>3274.425720477152</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U17" t="n">
-        <v>3089.80852288466</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2827.658914674762</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W17" t="n">
-        <v>2543.80353853832</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2239.251059410912</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>1918.025006568772</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061026</v>
+        <v>609.2207265061032</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118678</v>
+        <v>509.1978227118683</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332042</v>
+        <v>427.9944624332046</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844832</v>
+        <v>348.9946479844835</v>
       </c>
       <c r="F19" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202452</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286362</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016597</v>
+        <v>94.92451448016605</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5677,46 +5677,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.806473326164</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631578</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985651</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989864</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693062</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952378</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880163</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976873</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125281</v>
+        <v>873.835212212529</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026701</v>
+        <v>721.9559122026709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1473.076688949005</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C20" t="n">
-        <v>1173.027451142265</v>
+        <v>1173.027451142262</v>
       </c>
       <c r="D20" t="n">
-        <v>1071.618886574022</v>
+        <v>883.6750316691839</v>
       </c>
       <c r="E20" t="n">
-        <v>754.7439131094503</v>
+        <v>566.8000582046117</v>
       </c>
       <c r="F20" t="n">
-        <v>412.6712874535148</v>
+        <v>412.6712874535149</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269939</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
-        <v>3147.163963787833</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>2962.546766195342</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2700.397157985443</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2416.541781849001</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2111.989302721594</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y20" t="n">
-        <v>1790.763249879454</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061026</v>
+        <v>609.2207265061032</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118678</v>
+        <v>509.1978227118683</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332042</v>
+        <v>427.9944624332046</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844832</v>
+        <v>348.9946479844835</v>
       </c>
       <c r="F22" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202452</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286362</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016597</v>
+        <v>94.92451448016605</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5920,40 +5920,40 @@
         <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631577</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.70149455199</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985649</v>
+        <v>1878.308994985651</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989864</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693062</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952378</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880163</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976873</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125281</v>
+        <v>873.835212212529</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026701</v>
+        <v>721.9559122026709</v>
       </c>
     </row>
     <row r="23">
@@ -5969,61 +5969,61 @@
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927743</v>
+        <v>991.9165644927748</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368389</v>
+        <v>649.8439388368397</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155073</v>
+        <v>303.6847678155075</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2992265373251</v>
+        <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1186002271716</v>
+        <v>597.7129512068186</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.15281347558</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.684718147505</v>
+        <v>1582.279069127152</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463535206287</v>
+        <v>2168.679882898216</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.436006085624</v>
+        <v>3048.644533227671</v>
       </c>
       <c r="P23" t="n">
-        <v>3194.210372442803</v>
+        <v>3443.418899584849</v>
       </c>
       <c r="Q23" t="n">
-        <v>3652.688574951791</v>
+        <v>3691.705261340532</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897334</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558102</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075995</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483504</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273604</v>
+        <v>3125.513664273605</v>
       </c>
       <c r="W23" t="n">
         <v>2841.658288137162</v>
@@ -6032,7 +6032,7 @@
         <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167614</v>
+        <v>2215.879756167615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.046184606872</v>
+        <v>950.0461846068719</v>
       </c>
       <c r="C24" t="n">
-        <v>775.593155325745</v>
+        <v>775.5931553257449</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644938</v>
+        <v>626.6587456644936</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590383</v>
+        <v>467.4212906590382</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859233</v>
+        <v>320.8867326859231</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185421</v>
+        <v>184.5236325185412</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640906</v>
+        <v>94.02173815640873</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6917160485643</v>
+        <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289116</v>
+        <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415768</v>
+        <v>773.6540753415765</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563893</v>
+        <v>1220.930400563892</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
@@ -6087,7 +6087,7 @@
         <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.555872659105</v>
+        <v>2573.555872659104</v>
       </c>
       <c r="R24" t="n">
         <v>2573.41151925162</v>
@@ -6096,13 +6096,13 @@
         <v>2443.9736327451</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.330632422956</v>
+        <v>2251.330632422955</v>
       </c>
       <c r="U24" t="n">
         <v>2023.262785557371</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.110677325629</v>
+        <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
         <v>1533.873320597427</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318658</v>
+        <v>617.7230566318665</v>
       </c>
       <c r="C25" t="n">
-        <v>517.700152837631</v>
+        <v>517.7001528376315</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589673</v>
+        <v>436.4967925589679</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102463</v>
+        <v>357.4969781102468</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460081</v>
+        <v>279.5203097460085</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543992</v>
+        <v>180.7307522543995</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.4268446059293</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048822</v>
+        <v>120.1370790048823</v>
       </c>
       <c r="K25" t="n">
         <v>324.1242619537586</v>
       </c>
       <c r="L25" t="n">
-        <v>669.308803451926</v>
+        <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051475</v>
+        <v>1013.465849051476</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.87422575734</v>
+        <v>1354.874225757341</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677753</v>
+        <v>1654.203824677754</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111413</v>
+        <v>1886.811325111414</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263927</v>
+        <v>1964.421621263929</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155128</v>
+        <v>1943.504443155129</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115626</v>
+        <v>1820.731838115627</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818824</v>
+        <v>1667.878501818825</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.68891407814</v>
+        <v>1447.688914078141</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005925</v>
+        <v>1261.917705005926</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102636</v>
+        <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382913</v>
+        <v>882.3375423382922</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284334</v>
+        <v>730.4582423284342</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6227,16 +6227,16 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>792.1780824632688</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1243.212295711678</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1776.744200383602</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2323.523017442385</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
         <v>2826.495488321721</v>
@@ -6251,25 +6251,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,49 +6449,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K29" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L29" t="n">
-        <v>1543.189242259776</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N29" t="n">
-        <v>2623.499963990483</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3126.47243486982</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3521.246801226998</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3979.725003735986</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6601,31 +6601,31 @@
         <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,13 +6640,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890157</v>
+        <v>822.9179334642254</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037424</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.684944709349</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768131</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
@@ -6847,31 +6847,31 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973136</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,7 +6935,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810557</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650707</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C37" t="n">
-        <v>473.299353011007</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725147</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639649</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398978</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>255.3625741884601</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V37" t="n">
-        <v>1068.726127978445</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9803925153277</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X37" t="n">
-        <v>748.6622761911538</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.541131621467</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,55 +7157,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389139</v>
+        <v>444.8926667912272</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848503</v>
+        <v>374.6279184371636</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463579</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378082</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>423.0654108137411</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>255.3625741884601</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1453874063178</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7360,22 +7360,22 @@
         <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
         <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>976.651827089171</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>847.333710764997</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953103</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1761.631477902778</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C41" t="n">
-        <v>1465.354408773735</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339209</v>
+        <v>972.0977283339212</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556821</v>
+        <v>633.7972713556824</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120474</v>
+        <v>291.4102690120475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3154.708301143225</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>2973.86327222843</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2973.86327222843</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2693.780064769685</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2392.999754319974</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y41" t="n">
-        <v>2075.545870155531</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.5455015557014</v>
+        <v>582.8155457622262</v>
       </c>
       <c r="C43" t="n">
-        <v>518.2947664391634</v>
+        <v>486.564810645688</v>
       </c>
       <c r="D43" t="n">
-        <v>440.8635748381965</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E43" t="n">
-        <v>365.6359290671722</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F43" t="n">
-        <v>291.4314293806307</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G43" t="n">
-        <v>196.4140405667185</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246921</v>
+        <v>91.15234580246933</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7594,25 +7594,25 @@
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883005</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820017</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425499</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999069</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067337</v>
+        <v>839.8856941132584</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745723</v>
+        <v>691.7785627810971</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461521</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339209</v>
+        <v>921.3967184461521</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556821</v>
+        <v>583.0962614679133</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242785</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7670,28 +7670,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143225</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.86327222843</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2778.509336921162</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2498.426129462417</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462417</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297974</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622256</v>
+        <v>582.8155457622262</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456875</v>
+        <v>486.564810645688</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447207</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736964</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871549</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246921</v>
+        <v>91.15234580246933</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
         <v>315.6219318279954</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863915</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.41914650211</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883005</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820017</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425499</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999064</v>
+        <v>995.1897971999069</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132578</v>
+        <v>839.8856941132584</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810965</v>
+        <v>691.7785627810971</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331809</v>
+        <v>161.2833466331813</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772611</v>
+        <v>190.4708996772616</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114934</v>
+        <v>199.021486711494</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499966</v>
+        <v>189.4604205499973</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253953</v>
+        <v>187.865675725396</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001301</v>
+        <v>190.8661912001307</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610377</v>
+        <v>197.7493741610383</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.160884516818</v>
+        <v>197.1608845168184</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723702</v>
+        <v>115.0671825723704</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484542</v>
+        <v>117.7238752484546</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888316</v>
+        <v>111.5038326888321</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586504</v>
+        <v>110.5673213586509</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809779</v>
+        <v>98.93952256809834</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195523</v>
+        <v>112.9545713195528</v>
       </c>
       <c r="P9" t="n">
-        <v>110.18435147554</v>
+        <v>110.1843514755404</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137823</v>
+        <v>124.0787517137826</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747615</v>
+        <v>119.3562654747618</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960288</v>
+        <v>122.5532519960291</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290571</v>
+        <v>111.7023147290574</v>
       </c>
       <c r="O10" t="n">
-        <v>123.693438829787</v>
+        <v>123.6934388297873</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182092</v>
+        <v>125.0956219182094</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129488</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.4107943320595</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>190.2350110279876</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473904</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.79169145623162</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744083</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.2316174384354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.981554650711122</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796306</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>151.5159098051005</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783475</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.75045508965684</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>125.9891391224245</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>186.0644163557871</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557895</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.383618044985</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>104.3721113910183</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.4413282404707</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368798</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889128</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,13 +25922,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>62.39326918268451</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452139</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743640.2560777161</v>
+        <v>743640.2560777164</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623213.7432471083</v>
+        <v>623213.7432471084</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642157.6603960197</v>
+        <v>642157.6603960195</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>642157.6603960198</v>
+        <v>642157.6603960195</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684333.6461768631</v>
+        <v>684333.6461768632</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>668422.3512266605</v>
+        <v>668422.3512266608</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811867</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="D2" t="n">
-        <v>778330.1296355338</v>
+        <v>778330.1296355344</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953507</v>
+        <v>726304.4593953509</v>
       </c>
       <c r="F2" t="n">
-        <v>726304.4593953516</v>
+        <v>726304.4593953521</v>
       </c>
       <c r="G2" t="n">
-        <v>748800.3610096829</v>
+        <v>748800.3610096823</v>
       </c>
       <c r="H2" t="n">
-        <v>748800.3610096828</v>
+        <v>748800.3610096826</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="J2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="L2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="O2" t="n">
-        <v>752753.9453500292</v>
+        <v>752753.9453500293</v>
       </c>
       <c r="P2" t="n">
         <v>752753.9453500292</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264991</v>
+        <v>49603.99004264905</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112467</v>
+        <v>1114814.601112468</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899426</v>
+        <v>16999.20777899418</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716342</v>
+        <v>28261.85161716363</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225412</v>
+        <v>40637.45238225404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899424</v>
+        <v>16999.20777899422</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>429644.5458935876</v>
+        <v>429644.5458935879</v>
       </c>
       <c r="E4" t="n">
         <v>59435.44534362318</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362317</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="G4" t="n">
-        <v>72844.10175942467</v>
+        <v>72844.10175942455</v>
       </c>
       <c r="H4" t="n">
-        <v>72844.10175942467</v>
+        <v>72844.10175942456</v>
       </c>
       <c r="I4" t="n">
-        <v>88805.64290420647</v>
+        <v>88805.6429042065</v>
       </c>
       <c r="J4" t="n">
+        <v>86909.55729936333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86909.55729936331</v>
+      </c>
+      <c r="L4" t="n">
         <v>86909.55729936334</v>
       </c>
-      <c r="K4" t="n">
-        <v>86909.55729936334</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86909.55729936328</v>
-      </c>
       <c r="M4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.9549531693</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="O4" t="n">
-        <v>75210.52190087906</v>
+        <v>75210.52190087907</v>
       </c>
       <c r="P4" t="n">
-        <v>75210.52190087907</v>
+        <v>75210.52190087909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253472</v>
+        <v>34890.26850253469</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024712</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024712</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582714</v>
+        <v>86503.64721582716</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.8275443267</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.8275443267</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297660.3015087938</v>
+        <v>297655.8879309255</v>
       </c>
       <c r="C6" t="n">
-        <v>297660.3015087935</v>
+        <v>297655.8879309252</v>
       </c>
       <c r="D6" t="n">
-        <v>264191.3251967615</v>
+        <v>264186.9579553534</v>
       </c>
       <c r="E6" t="n">
-        <v>-526201.0803825208</v>
+        <v>-526342.3572824579</v>
       </c>
       <c r="F6" t="n">
-        <v>588613.5207299463</v>
+        <v>588472.243830011</v>
       </c>
       <c r="G6" t="n">
-        <v>578915.1751510169</v>
+        <v>578833.0979921707</v>
       </c>
       <c r="H6" t="n">
-        <v>595914.382930011</v>
+        <v>595832.3057711653</v>
       </c>
       <c r="I6" t="n">
-        <v>576418.5396338718</v>
+        <v>576418.5396338719</v>
       </c>
       <c r="J6" t="n">
         <v>563064.730014646</v>
       </c>
       <c r="K6" t="n">
-        <v>603702.1823969001</v>
+        <v>603702.1823968997</v>
       </c>
       <c r="L6" t="n">
         <v>586702.9746179059</v>
       </c>
       <c r="M6" t="n">
-        <v>403729.0291189255</v>
+        <v>403729.0291189257</v>
       </c>
       <c r="N6" t="n">
-        <v>605897.1291116497</v>
+        <v>605897.1291116498</v>
       </c>
       <c r="O6" t="n">
-        <v>597187.5959048234</v>
+        <v>597115.9229152943</v>
       </c>
       <c r="P6" t="n">
-        <v>597187.5959048234</v>
+        <v>597115.9229152943</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H2" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I2" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076688</v>
+        <v>57.92057351076588</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.680581974333</v>
+        <v>937.6805819743336</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374283</v>
+        <v>21.24900972374273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484974</v>
+        <v>25.72612689484981</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.2490097237428</v>
+        <v>21.24900972374277</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951229</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076688</v>
+        <v>57.92057351076588</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082531</v>
+        <v>1031.856127082532</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720399</v>
+        <v>106.2791265720407</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428143</v>
+        <v>76.65587923428086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374283</v>
+        <v>21.24900972374273</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484974</v>
+        <v>25.72612689484981</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507121</v>
+        <v>201.4990738507123</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098102</v>
+        <v>135.2425723098104</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596057</v>
+        <v>203.7140793596058</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858941</v>
+        <v>85.1072318885895</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643165</v>
+        <v>92.42270548643179</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659312</v>
+        <v>169.3690802659313</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508933</v>
+        <v>199.6625682508934</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112974</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284927</v>
+        <v>85.9747817528494</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657793</v>
+        <v>10.13465691657814</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156859</v>
+        <v>77.41603665156873</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348047</v>
+        <v>172.5970773348048</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28506,10 +28506,10 @@
         <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
+        <v>46.97513661859236</v>
+      </c>
+      <c r="K16" t="n">
         <v>46.97513661859257</v>
-      </c>
-      <c r="K16" t="n">
-        <v>46.97513661859233</v>
       </c>
       <c r="L16" t="n">
         <v>46.97513661859257</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.9138818683561</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835511</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="S19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.91388186835496</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.91388186835627</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="S22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>28.91388186835485</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835621</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="S25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.2241463423354</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859173</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>54.14548214544497</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30384,7 +30384,7 @@
         <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>55.47778196371191</v>
       </c>
       <c r="E40" t="n">
         <v>97.68472022810488</v>
@@ -30393,13 +30393,13 @@
         <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
-        <v>54.14548214544499</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30432,22 +30432,22 @@
         <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>97.68472022810488</v>
       </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
       <c r="W40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H43" t="n">
-        <v>40.54593709771405</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325514</v>
+        <v>40.54593709771507</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325514</v>
+        <v>40.54593709771503</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W46" t="n">
-        <v>40.54593709771413</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764496</v>
+        <v>0.2328465266764456</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38463949132519</v>
+        <v>2.384639491325149</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693832</v>
+        <v>8.976815719693676</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350533</v>
+        <v>19.76255789350499</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771945</v>
+        <v>29.61895136771894</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849385</v>
+        <v>36.74492825849321</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727616</v>
+        <v>40.88581267727545</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119562</v>
+        <v>41.54738787119491</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155667</v>
+        <v>39.232020221556</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423182</v>
+        <v>33.48362159423124</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763146</v>
+        <v>25.14480535763103</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133954</v>
+        <v>14.62654563133929</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3059902266396</v>
+        <v>5.305990226639508</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526159</v>
+        <v>1.019285670526141</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411596</v>
+        <v>0.01862772213411564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986307</v>
+        <v>0.1245838750986285</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610459</v>
+        <v>1.203217951610438</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825661</v>
+        <v>4.289400962825587</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429651</v>
+        <v>11.7704440942963</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590476</v>
+        <v>20.11756372590441</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104259</v>
+        <v>27.05054709104212</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336794</v>
+        <v>31.5667125633674</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523552</v>
+        <v>32.40218951523496</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489218</v>
+        <v>29.64167312489166</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879027</v>
+        <v>23.79005593878986</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223924</v>
+        <v>15.90302237223896</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211474</v>
+        <v>7.735128666211341</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906581</v>
+        <v>2.314090837906541</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282523</v>
+        <v>0.5021604439282437</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278336</v>
+        <v>0.008196307572278193</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390878</v>
+        <v>0.104446935839086</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693449</v>
+        <v>0.9286282113693289</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960932</v>
+        <v>3.141004215960878</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823507</v>
+        <v>7.384398363823379</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930493</v>
+        <v>12.13483490930472</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647675</v>
+        <v>15.52841080647648</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157628</v>
+        <v>16.372531951576</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617606</v>
+        <v>15.98322973617578</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7630996220558</v>
+        <v>14.76309962205554</v>
       </c>
       <c r="P10" t="n">
-        <v>12.6323821309384</v>
+        <v>12.63238213093818</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125799</v>
+        <v>8.746006600125646</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364802</v>
+        <v>4.69631404236472</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395739</v>
+        <v>1.820225236395707</v>
       </c>
       <c r="T10" t="n">
-        <v>0.446273271312466</v>
+        <v>0.4462732713124583</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222978</v>
+        <v>0.005697105591222879</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165858</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629119</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037208</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385542</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062488</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554017</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36288,13 +36288,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>373.770828035895</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8709530134667</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>592.3240543142064</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>99.02399287428427</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36519,10 +36519,10 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>348.6712540385529</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.54726126184</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>527.4262975833881</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162069</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>78.4048899984564</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36990,7 +36990,7 @@
         <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,10 +36999,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>558.4766521298088</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629113</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302255</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
